--- a/public/template/pr_import.xlsx
+++ b/public/template/pr_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18528" windowHeight="7284"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>需求来源</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>操作系统版本</t>
+  </si>
+  <si>
+    <t>操作系统小版本号</t>
   </si>
   <si>
     <t>芯片</t>
@@ -114,12 +117,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +141,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -145,12 +155,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -158,85 +275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,36 +297,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,49 +307,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,133 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,72 +502,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,8 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,8 +552,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,221 +618,224 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -951,7 +964,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -972,9 +985,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -995,7 +1008,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1065,7 +1078,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1091,7 +1104,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1120,35 +1133,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="23.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="24.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="12.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="12.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
-    <col min="13" max="13" width="12.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="18.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="14.8888888888889" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="20.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="17.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="12.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="16.225" customWidth="true"/>
+    <col min="2" max="2" width="23.5583333333333" customWidth="true"/>
+    <col min="3" max="3" width="17.6666666666667" customWidth="true"/>
+    <col min="4" max="4" width="15.775" customWidth="true"/>
+    <col min="5" max="5" width="24.6666666666667" customWidth="true"/>
+    <col min="6" max="6" width="24.3333333333333" customWidth="true"/>
+    <col min="7" max="7" width="13.775" customWidth="true"/>
+    <col min="8" max="8" width="15.225" customWidth="true"/>
+    <col min="9" max="9" width="16.5" customWidth="true"/>
+    <col min="10" max="10" width="12.5583333333333" customWidth="true"/>
+    <col min="11" max="11" width="12.8916666666667" customWidth="true"/>
+    <col min="12" max="12" width="9.89166666666667" customWidth="true"/>
+    <col min="14" max="14" width="12.3333333333333" customWidth="true"/>
+    <col min="15" max="15" width="18.5583333333333" customWidth="true"/>
+    <col min="16" max="16" width="14.8916666666667" customWidth="true"/>
+    <col min="17" max="17" width="15" customWidth="true"/>
+    <col min="18" max="18" width="20.1083333333333" customWidth="true"/>
+    <col min="19" max="19" width="17.6666666666667" customWidth="true"/>
+    <col min="20" max="20" width="12.775" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,25 +1187,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1203,54 +1217,58 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" ht="72" spans="1:19">
+    <row r="2" ht="67.5" spans="1:20">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1270,8 +1288,9 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1291,8 +1310,9 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1312,8 +1332,9 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1333,8 +1354,9 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1354,8 +1376,9 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1375,8 +1398,9 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1396,8 +1420,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1417,8 +1442,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1438,8 +1464,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1459,26 +1486,27 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"一般,紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"一般,紧急"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1496,7 +1524,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1513,7 +1541,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/template/pr_import.xlsx
+++ b/public/template/pr_import.xlsx
@@ -116,7 +116,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -155,75 +156,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,54 +218,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,6 +269,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -313,31 +314,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,145 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,24 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,22 +536,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,21 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -613,158 +590,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -781,6 +785,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -1135,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1155,7 +1168,7 @@
     <col min="12" max="12" width="9.89166666666667" customWidth="true"/>
     <col min="14" max="14" width="12.3333333333333" customWidth="true"/>
     <col min="15" max="15" width="18.5583333333333" customWidth="true"/>
-    <col min="16" max="16" width="14.8916666666667" customWidth="true"/>
+    <col min="16" max="16" width="14.8916666666667" style="1" customWidth="true"/>
     <col min="17" max="17" width="15" customWidth="true"/>
     <col min="18" max="18" width="20.1083333333333" customWidth="true"/>
     <col min="19" max="19" width="17.6666666666667" customWidth="true"/>
@@ -1163,350 +1176,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:20">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"一般,紧急"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"招投标,实施阶段,运维阶段"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"招投标,实施阶段,运维阶段"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/pr_import.xlsx
+++ b/public/template/pr_import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>需求来源</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>参考生态网站外设分类三</t>
+  </si>
+  <si>
+    <t>海光</t>
   </si>
   <si>
     <t>填写完整的项目名称</t>
@@ -117,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -156,37 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,9 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,47 +188,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +226,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -278,22 +256,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,55 +311,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,115 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +520,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,24 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,6 +579,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,177 +617,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1257,27 +1260,29 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="3"/>
     </row>
@@ -1506,14 +1511,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"一般,紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"招投标,实施阶段,运维阶段"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"招投标,实施阶段,运维阶段"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>

--- a/public/template/pr_import.xlsx
+++ b/public/template/pr_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>需求来源</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>参考生态网站外设分类三</t>
+  </si>
+  <si>
+    <t>银河麒麟桌面操作系统V10SP1</t>
   </si>
   <si>
     <t>海光</t>
@@ -120,13 +123,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +146,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -159,9 +168,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,129 +244,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,13 +320,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,61 +458,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,108 +500,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -506,16 +515,68 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,15 +586,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +605,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,30 +631,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -618,240 +640,247 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -980,7 +1009,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1001,9 +1030,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="true"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1024,7 +1053,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="false"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1094,7 +1123,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1120,7 +1149,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1152,30 +1181,30 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.225" customWidth="true"/>
-    <col min="2" max="2" width="23.5583333333333" customWidth="true"/>
-    <col min="3" max="3" width="17.6666666666667" customWidth="true"/>
-    <col min="4" max="4" width="15.775" customWidth="true"/>
-    <col min="5" max="5" width="24.6666666666667" customWidth="true"/>
-    <col min="6" max="6" width="24.3333333333333" customWidth="true"/>
-    <col min="7" max="7" width="13.775" customWidth="true"/>
-    <col min="8" max="8" width="15.225" customWidth="true"/>
-    <col min="9" max="9" width="16.5" customWidth="true"/>
-    <col min="10" max="10" width="12.5583333333333" customWidth="true"/>
-    <col min="11" max="11" width="12.8916666666667" customWidth="true"/>
-    <col min="12" max="12" width="9.89166666666667" customWidth="true"/>
-    <col min="14" max="14" width="12.3333333333333" customWidth="true"/>
-    <col min="15" max="15" width="18.5583333333333" customWidth="true"/>
-    <col min="16" max="16" width="14.8916666666667" style="1" customWidth="true"/>
-    <col min="17" max="17" width="15" customWidth="true"/>
-    <col min="18" max="18" width="20.1083333333333" customWidth="true"/>
-    <col min="19" max="19" width="17.6666666666667" customWidth="true"/>
-    <col min="20" max="20" width="12.775" customWidth="true"/>
+    <col min="1" max="1" width="16.225" customWidth="1"/>
+    <col min="2" max="2" width="23.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.775" customWidth="1"/>
+    <col min="5" max="5" width="24.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.775" customWidth="1"/>
+    <col min="8" max="8" width="15.225" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="12.5583333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.8916666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.89166666666667" customWidth="1"/>
+    <col min="14" max="14" width="12.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="18.5583333333333" customWidth="1"/>
+    <col min="16" max="16" width="14.8916666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="20.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="17.6666666666667" customWidth="1"/>
+    <col min="20" max="20" width="12.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1203,28 +1232,28 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1236,7 +1265,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1258,31 +1287,33 @@
         <v>24</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="8" t="s">
-        <v>28</v>
+      <c r="P2" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="10" t="s">
         <v>31</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="T2" s="3"/>
     </row>
@@ -1302,7 +1333,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="9"/>
+      <c r="P3" s="10"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1324,7 +1355,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1346,7 +1377,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="9"/>
+      <c r="P5" s="10"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1368,7 +1399,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="9"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1390,7 +1421,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1412,7 +1443,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="9"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1434,7 +1465,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1456,7 +1487,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1478,7 +1509,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="9"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1500,7 +1531,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="9"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1508,23 +1539,23 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"一般,紧急"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"招投标,实施阶段,运维阶段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"招投标,实施阶段,运维阶段"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"一般,紧急"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/pr_import.xlsx
+++ b/public/template/pr_import.xlsx
@@ -123,13 +123,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,53 +154,92 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,100 +251,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,13 +313,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,169 +421,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,39 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -609,7 +569,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +615,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -647,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,140 +652,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,20 +804,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1178,13 +1165,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.225" customWidth="1"/>
     <col min="2" max="2" width="23.5583333333333" customWidth="1"/>
@@ -1232,28 +1219,28 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1265,7 +1252,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1303,7 +1290,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -1312,238 +1299,15 @@
       <c r="R2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"招投标,实施阶段,运维阶段"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
@@ -1551,8 +1315,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"招投标,实施阶段,运维阶段"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"一般,紧急"</formula1>

--- a/public/template/pr_import.xlsx
+++ b/public/template/pr_import.xlsx
@@ -4,19 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="外设需求" sheetId="1" r:id="rId1"/>
+    <sheet name="外设分类" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="待验证">[1]适配状态!$D$2</definedName>
+    <definedName name="其它外设">外设分类!$E$2</definedName>
+    <definedName name="软硬件一体">外设分类!$D$2:$D$6</definedName>
+    <definedName name="适配暂停">[1]适配状态!$E$2:$E$4</definedName>
+    <definedName name="适配中">[1]适配状态!$B$2:$B$17</definedName>
+    <definedName name="输出设备">外设分类!$A$2:$A$13</definedName>
+    <definedName name="输入设备">外设分类!$B$2:$B$22</definedName>
+    <definedName name="网络设备">外设分类!$C$2</definedName>
+    <definedName name="未适配">[1]适配状态!$A$2:$A$4</definedName>
+    <definedName name="已适配">[1]适配状态!$C$2:$C$9</definedName>
+    <definedName name="适配中" localSheetId="1">[1]适配状态!$B$2:$B$18</definedName>
+    <definedName name="已适配" localSheetId="1">[1]适配状态!$C$2:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>需求来源</t>
   </si>
@@ -87,10 +103,10 @@
     <t>填写完整的外设型号，例：HP COLOR LASERJET CP5225</t>
   </si>
   <si>
-    <t>参考生态网站外设分类二</t>
-  </si>
-  <si>
-    <t>参考生态网站外设分类三</t>
+    <t>输出设备</t>
+  </si>
+  <si>
+    <t>激光打印机</t>
   </si>
   <si>
     <t>银河麒麟桌面操作系统V10SP1</t>
@@ -116,6 +132,132 @@
   <si>
     <t>打印机：王永红
 其他外设：王凯龙</t>
+  </si>
+  <si>
+    <t>输入设备</t>
+  </si>
+  <si>
+    <t>网络设备</t>
+  </si>
+  <si>
+    <t>软硬件一体</t>
+  </si>
+  <si>
+    <t>其它外设</t>
+  </si>
+  <si>
+    <t>扫描仪</t>
+  </si>
+  <si>
+    <t>无线网卡</t>
+  </si>
+  <si>
+    <t>UKey</t>
+  </si>
+  <si>
+    <t>移动光驱</t>
+  </si>
+  <si>
+    <t>喷墨打印机</t>
+  </si>
+  <si>
+    <t>触摸屏</t>
+  </si>
+  <si>
+    <t>电子支付密码器</t>
+  </si>
+  <si>
+    <t>智能复合机/多功能一体机</t>
+  </si>
+  <si>
+    <t>扫描枪</t>
+  </si>
+  <si>
+    <t>印控仪</t>
+  </si>
+  <si>
+    <t>针式打印机</t>
+  </si>
+  <si>
+    <t>摄像头</t>
+  </si>
+  <si>
+    <t>密码模块</t>
+  </si>
+  <si>
+    <t>热敏打印机</t>
+  </si>
+  <si>
+    <t>高拍仪</t>
+  </si>
+  <si>
+    <t>指静脉</t>
+  </si>
+  <si>
+    <t>条码/标签打印机</t>
+  </si>
+  <si>
+    <t>读卡器</t>
+  </si>
+  <si>
+    <t>证卡打印机</t>
+  </si>
+  <si>
+    <t>身份证阅读机具</t>
+  </si>
+  <si>
+    <t>扩展坞</t>
+  </si>
+  <si>
+    <t>指纹设备</t>
+  </si>
+  <si>
+    <t>发卡机</t>
+  </si>
+  <si>
+    <t>手写板</t>
+  </si>
+  <si>
+    <t>耳机</t>
+  </si>
+  <si>
+    <t>手写屏</t>
+  </si>
+  <si>
+    <t>投影仪</t>
+  </si>
+  <si>
+    <t>虹膜设备</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>传真服务器</t>
+  </si>
+  <si>
+    <t>传真机</t>
+  </si>
+  <si>
+    <t>密码键盘</t>
+  </si>
+  <si>
+    <t>人脸识别摄像头</t>
+  </si>
+  <si>
+    <t>键鼠</t>
+  </si>
+  <si>
+    <t>麦克风音箱</t>
+  </si>
+  <si>
+    <t>柜外清</t>
+  </si>
+  <si>
+    <t>语音模块</t>
+  </si>
+  <si>
+    <t>交互终端</t>
   </si>
 </sst>
 </file>
@@ -785,9 +927,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -800,6 +948,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,6 +1028,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="外设数据"/>
+      <sheetName val="外设分类"/>
+      <sheetName val="适配状态"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1187,7 +1356,7 @@
     <col min="12" max="12" width="9.89166666666667" customWidth="1"/>
     <col min="14" max="14" width="12.3333333333333" customWidth="1"/>
     <col min="15" max="15" width="18.5583333333333" customWidth="1"/>
-    <col min="16" max="16" width="14.8916666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.8916666666667" style="3" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="20.1083333333333" customWidth="1"/>
     <col min="19" max="19" width="17.6666666666667" customWidth="1"/>
@@ -1195,125 +1364,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:20">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="7" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"一般,紧急"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>[1]外设分类!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>INDIRECT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
@@ -1321,8 +1496,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"一般,紧急"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1334,33 +1509,203 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="F6EA" sheet="1" objects="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/public/template/pr_import.xlsx
+++ b/public/template/pr_import.xlsx
@@ -16,11 +16,11 @@
   <definedNames>
     <definedName name="待验证">[1]适配状态!$D$2</definedName>
     <definedName name="其它外设">外设分类!$E$2</definedName>
-    <definedName name="软硬件一体">外设分类!$D$2:$D$6</definedName>
+    <definedName name="软硬件一体">外设分类!$D$2:$D$9</definedName>
     <definedName name="适配暂停">[1]适配状态!$E$2:$E$4</definedName>
     <definedName name="适配中">[1]适配状态!$B$2:$B$17</definedName>
     <definedName name="输出设备">外设分类!$A$2:$A$13</definedName>
-    <definedName name="输入设备">外设分类!$B$2:$B$22</definedName>
+    <definedName name="输入设备">外设分类!$B$2:$B$25</definedName>
     <definedName name="网络设备">外设分类!$C$2</definedName>
     <definedName name="未适配">[1]适配状态!$A$2:$A$4</definedName>
     <definedName name="已适配">[1]适配状态!$C$2:$C$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>需求来源</t>
   </si>
@@ -200,18 +200,27 @@
     <t>读卡器</t>
   </si>
   <si>
+    <t>其它</t>
+  </si>
+  <si>
     <t>证卡打印机</t>
   </si>
   <si>
     <t>身份证阅读机具</t>
   </si>
   <si>
+    <t>录音电话</t>
+  </si>
+  <si>
     <t>扩展坞</t>
   </si>
   <si>
     <t>指纹设备</t>
   </si>
   <si>
+    <t>硬件配套软件</t>
+  </si>
+  <si>
     <t>发卡机</t>
   </si>
   <si>
@@ -230,9 +239,6 @@
     <t>虹膜设备</t>
   </si>
   <si>
-    <t>其它</t>
-  </si>
-  <si>
     <t>传真服务器</t>
   </si>
   <si>
@@ -258,6 +264,15 @@
   </si>
   <si>
     <t>交互终端</t>
+  </si>
+  <si>
+    <t>掌纹识别仪</t>
+  </si>
+  <si>
+    <t>记录仪</t>
+  </si>
+  <si>
+    <t>纸币清分机</t>
   </si>
 </sst>
 </file>
@@ -1475,20 +1490,20 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"一般,紧急"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>[1]外设分类!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>INDIRECT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"一般,紧急"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
@@ -1496,8 +1511,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,10 +1524,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1602,105 +1617,129 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>65</v>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
